--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -99701,7 +99701,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1774"/>
+  <dimension ref="A1:R1776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99813,7 +99813,117 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>4551.89990234375</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>4588.85009765625</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>4440.2001953125</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>4474.4501953125</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>4474.4501953125</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>224693</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>4474</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>4564.85009765625</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>4435.10009765625</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>4476.85009765625</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>4476.85009765625</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>234472</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1777"/>
+  <dimension ref="A1:R1778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99981,7 +99981,63 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>4440</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>4450</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>4250.39990234375</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>4302.14990234375</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>4302.14990234375</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>866177</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -100037,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -100093,7 +100093,9 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -100373,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100427,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100481,7 +100485,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100535,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100589,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1788"/>
+  <dimension ref="A1:R1789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100601,6 +100601,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>4739.9501953125</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>5080</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>4734.7998046875</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>5039.2998046875</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>5039.2998046875</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>2053012</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1789"/>
+  <dimension ref="A1:R1790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100653,7 +100653,63 @@
       <c r="Q1789" t="n">
         <v>1</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>5079</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>5219</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>4901.35009765625</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>4933.89990234375</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>4933.89990234375</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>1438242</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1790"/>
+  <dimension ref="A1:R1797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100709,7 +100709,387 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>4947.4501953125</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>5022.5</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>4832.2001953125</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>4861.7001953125</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>4861.7001953125</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>577843</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>4928</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>5082.9501953125</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>4763</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>4804.85009765625</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>4804.85009765625</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>726519</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>4792</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>4875</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>4765.85009765625</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>4833.7001953125</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>4833.7001953125</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>356824</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>4850</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>4905</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>4755</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>4783.35009765625</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>4783.35009765625</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>376890</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>4775</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>4823.9501953125</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>4690</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>4801</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>4801</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>546313</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>4819.9501953125</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>4960</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>4738</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>4900.10009765625</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>4900.10009765625</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>503719</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>4900</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>4921.9501953125</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>4680</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>4716.75</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>4716.75</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>684213</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -100765,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100819,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100873,7 +100877,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100927,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100981,7 +100989,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101035,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101089,7 +101101,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1797"/>
+  <dimension ref="A1:R1802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100701,7 +100701,7 @@
         <v>25</v>
       </c>
       <c r="O1790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1790" t="n">
         <v>0</v>
@@ -101104,6 +101104,276 @@
       <c r="R1797" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>4725.10009765625</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>4754.4501953125</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>4612.5</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>4735.89990234375</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>4735.89990234375</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>642169</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>4759.10009765625</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>4825.25</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>4719.5498046875</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>4773.85009765625</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>4773.85009765625</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>360009</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>4760</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>4810.89990234375</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>4700.7001953125</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>4792.89990234375</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>4792.89990234375</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>799111</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>4785.10009765625</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>4825</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>4725</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>4768.10009765625</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>4768.10009765625</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>317759</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>4768.85009765625</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>4871</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>4742.7998046875</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>4853.10009765625</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>4853.10009765625</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>359400</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1802"/>
+  <dimension ref="A1:R1811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101149,7 +101149,7 @@
         <v>27</v>
       </c>
       <c r="O1798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1798" t="n">
         <v>0</v>
@@ -101157,7 +101157,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101211,7 +101213,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101265,7 +101269,9 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -101319,7 +101325,9 @@
       <c r="Q1801" t="n">
         <v>2</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101373,7 +101381,495 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>4860</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>4935.2001953125</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>4820</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>4851.5498046875</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>4851.5498046875</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>706765</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>4853.10009765625</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>4893.9501953125</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>4780</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>4806.35009765625</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>4806.35009765625</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>421547</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>4825</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>4894.35009765625</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>4731.10009765625</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>4834.4501953125</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>4834.4501953125</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>284146</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>4853.89990234375</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>4969</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>4832.25</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>4898.89990234375</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>4898.89990234375</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>568246</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>4939.89990234375</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>5016.9501953125</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>4909</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>4943.64990234375</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>4943.64990234375</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>598090</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>5126.4501953125</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>5164</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>4943.64990234375</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>4988.85009765625</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>4988.85009765625</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>1405587</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>5104</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>4979</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>5039.85009765625</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>5039.85009765625</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>1062769</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>5039.85009765625</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>5096.9501953125</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>5028</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>5083.4501953125</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>5083.4501953125</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>837644</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>5062.10009765625</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>5078.5</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>4955</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>5010.7001953125</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>5010.7001953125</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>444940</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1811"/>
+  <dimension ref="A1:R1821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101437,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101491,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101545,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101599,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101653,7 +101661,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101707,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101761,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101815,7 +101829,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101869,7 +101885,549 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>4955</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>5031.9501953125</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>4922.75</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>5012.85009765625</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>5012.85009765625</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>559762</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>5013</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>5095.4501953125</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>4925.10009765625</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>5065.25</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>5065.25</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>431809</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>5100</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>5205</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>5082.64990234375</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>5158.4501953125</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>5158.4501953125</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>630155</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>5148</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>5184.89990234375</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>5058.10009765625</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>5171.35009765625</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>5171.35009765625</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>393012</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>5199</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>5199</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>5040</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>5071.60009765625</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>5071.60009765625</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>234445</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>5144</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>5144</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>5041.7998046875</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>5112.85009765625</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>5112.85009765625</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>206613</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>5140</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>5175.5498046875</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>5000.10009765625</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>5027.2001953125</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>5027.2001953125</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>299951</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>5040</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>5068.89990234375</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>4910.2001953125</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>4935.9501953125</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>4935.9501953125</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>912329</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>4949</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>5008</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>4883</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>4993.7998046875</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>4993.7998046875</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>202176</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>4950</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>5029.75</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>4890.14990234375</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>4909.7001953125</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>4909.7001953125</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>486196</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1821"/>
+  <dimension ref="A1:R1826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101941,7 +101941,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101995,7 +101997,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102041,7 +102045,7 @@
         <v>30</v>
       </c>
       <c r="O1814" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1814" t="n">
         <v>0</v>
@@ -102049,7 +102053,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -102103,7 +102109,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102157,7 +102165,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102211,7 +102221,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102265,7 +102277,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102319,7 +102333,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102373,7 +102389,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102427,7 +102445,279 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>4861.5</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>5010</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>4801</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>4817.4501953125</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>4817.4501953125</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>715443</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>4818.14990234375</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>5045.25</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>4818.14990234375</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>4909.89990234375</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>4909.89990234375</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>798720</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>4960</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>5063.5498046875</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>4954.4501953125</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>5018.5</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>5018.5</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>322153</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>5049.9501953125</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>5063.89990234375</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>4942</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>4980.10009765625</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>4980.10009765625</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>348300</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>5033</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>5063.7998046875</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>4971.35009765625</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>4989.9501953125</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>4989.9501953125</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>101963</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1826"/>
+  <dimension ref="A1:R1830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102501,7 +102501,9 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102555,7 +102557,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102609,7 +102613,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102663,7 +102669,9 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102717,7 +102725,225 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>4999</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>5025</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>4960.5498046875</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>5013.7998046875</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>5013.7998046875</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>167412</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>5039.9501953125</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>5048</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>4905.5</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>4929.5</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>4929.5</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>138438</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>4950</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>5020</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>4913.2998046875</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>4960.2998046875</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>4960.2998046875</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>282580</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>4995</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>5025</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>4902.7001953125</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>5021.2998046875</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>5021.2998046875</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>193759</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1830"/>
+  <dimension ref="A1:R1835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102493,7 +102493,7 @@
         <v>32</v>
       </c>
       <c r="O1822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1822" t="n">
         <v>0</v>
@@ -102781,7 +102781,9 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
@@ -102835,7 +102837,9 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1829">
       <c r="A1829" s="2" t="n">
@@ -102889,7 +102893,9 @@
       <c r="Q1829" t="n">
         <v>0</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
@@ -102943,7 +102949,279 @@
       <c r="Q1830" t="n">
         <v>0</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>5040</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>5048</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>4982.0498046875</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>5002.7001953125</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>5002.7001953125</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>171799</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>5008</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>5095.9501953125</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>4987.7001953125</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>5079.2001953125</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>5079.2001953125</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>320092</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>5095</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>5164</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>5051.85009765625</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>5099.4501953125</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>5099.4501953125</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>796491</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>5145</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>5145</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>5021.14990234375</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>5057.85009765625</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>5057.85009765625</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>353198</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>5045</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>5088.7998046875</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>4880</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>4901.5</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>4901.5</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>802956</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1835"/>
+  <dimension ref="A1:R1840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103005,7 +103005,9 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
@@ -103059,7 +103061,9 @@
       <c r="Q1832" t="n">
         <v>0</v>
       </c>
-      <c r="R1832" t="inlineStr"/>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
@@ -103113,7 +103117,9 @@
       <c r="Q1833" t="n">
         <v>0</v>
       </c>
-      <c r="R1833" t="inlineStr"/>
+      <c r="R1833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
@@ -103167,7 +103173,9 @@
       <c r="Q1834" t="n">
         <v>0</v>
       </c>
-      <c r="R1834" t="inlineStr"/>
+      <c r="R1834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
@@ -103221,7 +103229,279 @@
       <c r="Q1835" t="n">
         <v>0</v>
       </c>
-      <c r="R1835" t="inlineStr"/>
+      <c r="R1835" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>4903</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>4978.75</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>4900.10009765625</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>4959.39990234375</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>4959.39990234375</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>475103</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>5010</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>5010</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>4925.64990234375</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>4958.5498046875</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>4958.5498046875</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>144910</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>4995.5</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>4995.5</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>4905</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>4964.85009765625</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>4964.85009765625</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>504521</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>4991.5</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>5155.5498046875</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>4980.64990234375</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>5008.7998046875</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>5008.7998046875</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>939641</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>5020</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>5042</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>4900</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>4927.4501953125</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>4927.4501953125</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>563956</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1840"/>
+  <dimension ref="A1:R1845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103109,7 +103109,7 @@
         <v>34</v>
       </c>
       <c r="O1833" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1833" t="n">
         <v>0</v>
@@ -103221,7 +103221,7 @@
         <v>34</v>
       </c>
       <c r="O1835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1835" t="n">
         <v>0</v>
@@ -103285,7 +103285,9 @@
       <c r="Q1836" t="n">
         <v>0</v>
       </c>
-      <c r="R1836" t="inlineStr"/>
+      <c r="R1836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1837">
       <c r="A1837" s="2" t="n">
@@ -103339,7 +103341,9 @@
       <c r="Q1837" t="n">
         <v>0</v>
       </c>
-      <c r="R1837" t="inlineStr"/>
+      <c r="R1837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1838">
       <c r="A1838" s="2" t="n">
@@ -103393,7 +103397,9 @@
       <c r="Q1838" t="n">
         <v>0</v>
       </c>
-      <c r="R1838" t="inlineStr"/>
+      <c r="R1838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1839">
       <c r="A1839" s="2" t="n">
@@ -103447,7 +103453,9 @@
       <c r="Q1839" t="n">
         <v>0</v>
       </c>
-      <c r="R1839" t="inlineStr"/>
+      <c r="R1839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1840">
       <c r="A1840" s="2" t="n">
@@ -103501,7 +103509,279 @@
       <c r="Q1840" t="n">
         <v>0</v>
       </c>
-      <c r="R1840" t="inlineStr"/>
+      <c r="R1840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>4977</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>5023.9501953125</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>4951</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>4999.85009765625</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>4999.85009765625</v>
+      </c>
+      <c r="G1841" t="n">
+        <v>290596</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1841" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1841" t="inlineStr"/>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>5029</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>5039.7998046875</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>4965</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>4980.60009765625</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>4980.60009765625</v>
+      </c>
+      <c r="G1842" t="n">
+        <v>222027</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1842" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1842" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1842" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1842" t="inlineStr"/>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>4974</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>5109</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>4960.35009765625</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>5100.89990234375</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>5100.89990234375</v>
+      </c>
+      <c r="G1843" t="n">
+        <v>319841</v>
+      </c>
+      <c r="H1843" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1843" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1843" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1843" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1843" t="inlineStr"/>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>5084.10009765625</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>5361.14990234375</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>5077.10009765625</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>5308.14990234375</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>5308.14990234375</v>
+      </c>
+      <c r="G1844" t="n">
+        <v>1323435</v>
+      </c>
+      <c r="H1844" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1844" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1844" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1844" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1844" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1844" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1844" t="inlineStr"/>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>5293</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>5354.5498046875</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>5202</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>5303.4501953125</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>5303.4501953125</v>
+      </c>
+      <c r="G1845" t="n">
+        <v>720877</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1845" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1845" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1845" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1845" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1845"/>
+  <dimension ref="A1:R1850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103565,7 +103565,9 @@
       <c r="Q1841" t="n">
         <v>0</v>
       </c>
-      <c r="R1841" t="inlineStr"/>
+      <c r="R1841" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1842">
       <c r="A1842" s="2" t="n">
@@ -103619,7 +103621,9 @@
       <c r="Q1842" t="n">
         <v>0</v>
       </c>
-      <c r="R1842" t="inlineStr"/>
+      <c r="R1842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1843">
       <c r="A1843" s="2" t="n">
@@ -103673,7 +103677,9 @@
       <c r="Q1843" t="n">
         <v>0</v>
       </c>
-      <c r="R1843" t="inlineStr"/>
+      <c r="R1843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1844">
       <c r="A1844" s="2" t="n">
@@ -103727,7 +103733,9 @@
       <c r="Q1844" t="n">
         <v>2</v>
       </c>
-      <c r="R1844" t="inlineStr"/>
+      <c r="R1844" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1845">
       <c r="A1845" s="2" t="n">
@@ -103781,7 +103789,279 @@
       <c r="Q1845" t="n">
         <v>0</v>
       </c>
-      <c r="R1845" t="inlineStr"/>
+      <c r="R1845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>5303.4501953125</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>5395</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>5216.0498046875</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>5361.39990234375</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>5361.39990234375</v>
+      </c>
+      <c r="G1846" t="n">
+        <v>594876</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1846" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1846" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1846" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1846" t="inlineStr"/>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>5361.39990234375</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>5422.4501953125</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>5315</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>5344.39990234375</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>5344.39990234375</v>
+      </c>
+      <c r="G1847" t="n">
+        <v>400985</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1847" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1847" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1847" t="inlineStr"/>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>5357.89990234375</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>5449</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>5279.10009765625</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>5299.10009765625</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>5299.10009765625</v>
+      </c>
+      <c r="G1848" t="n">
+        <v>461780</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1848" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1848" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1848" t="inlineStr"/>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>5330</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>5376.0498046875</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>5216.89990234375</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>5238.5498046875</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>5238.5498046875</v>
+      </c>
+      <c r="G1849" t="n">
+        <v>380591</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1849" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1849" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1849" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1849" t="inlineStr"/>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>5250.89990234375</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>5255.85009765625</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>5155</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>5187.0498046875</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>5187.0498046875</v>
+      </c>
+      <c r="G1850" t="n">
+        <v>395377</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1850" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1850" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1850" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1850"/>
+  <dimension ref="A1:R1855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103845,7 +103845,9 @@
       <c r="Q1846" t="n">
         <v>1</v>
       </c>
-      <c r="R1846" t="inlineStr"/>
+      <c r="R1846" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1847">
       <c r="A1847" s="2" t="n">
@@ -103899,7 +103901,9 @@
       <c r="Q1847" t="n">
         <v>0</v>
       </c>
-      <c r="R1847" t="inlineStr"/>
+      <c r="R1847" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1848">
       <c r="A1848" s="2" t="n">
@@ -103953,7 +103957,9 @@
       <c r="Q1848" t="n">
         <v>0</v>
       </c>
-      <c r="R1848" t="inlineStr"/>
+      <c r="R1848" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1849">
       <c r="A1849" s="2" t="n">
@@ -104007,7 +104013,9 @@
       <c r="Q1849" t="n">
         <v>0</v>
       </c>
-      <c r="R1849" t="inlineStr"/>
+      <c r="R1849" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1850">
       <c r="A1850" s="2" t="n">
@@ -104061,7 +104069,279 @@
       <c r="Q1850" t="n">
         <v>0</v>
       </c>
-      <c r="R1850" t="inlineStr"/>
+      <c r="R1850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1851" t="n">
+        <v>5188.0498046875</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>5176.14990234375</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>5204.7998046875</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>5204.7998046875</v>
+      </c>
+      <c r="G1851" t="n">
+        <v>198479</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1851" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1851" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1851" t="inlineStr"/>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1852" t="n">
+        <v>5227</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>5254</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>5200.10009765625</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>5219.85009765625</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>5219.85009765625</v>
+      </c>
+      <c r="G1852" t="n">
+        <v>155984</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1852" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1852" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1852" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1852" t="inlineStr"/>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1853" t="n">
+        <v>5225</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>5289</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>5219.89990234375</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>5265.2001953125</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>5265.2001953125</v>
+      </c>
+      <c r="G1853" t="n">
+        <v>201983</v>
+      </c>
+      <c r="H1853" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1853" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1853" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1853" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1853" t="inlineStr"/>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1854" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>5443.9501953125</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>5180</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>5342.5</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>5342.5</v>
+      </c>
+      <c r="G1854" t="n">
+        <v>392198</v>
+      </c>
+      <c r="H1854" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1854" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1854" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1854" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1854" t="inlineStr"/>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1855" t="n">
+        <v>5360</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>5417.9501953125</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>5225.10009765625</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>5320.5498046875</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>5320.5498046875</v>
+      </c>
+      <c r="G1855" t="n">
+        <v>598349</v>
+      </c>
+      <c r="H1855" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1855" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1855" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1855" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1855" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1855"/>
+  <dimension ref="A1:R1860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104125,7 +104125,9 @@
       <c r="Q1851" t="n">
         <v>0</v>
       </c>
-      <c r="R1851" t="inlineStr"/>
+      <c r="R1851" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1852">
       <c r="A1852" s="2" t="n">
@@ -104179,7 +104181,9 @@
       <c r="Q1852" t="n">
         <v>0</v>
       </c>
-      <c r="R1852" t="inlineStr"/>
+      <c r="R1852" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1853">
       <c r="A1853" s="2" t="n">
@@ -104233,7 +104237,9 @@
       <c r="Q1853" t="n">
         <v>0</v>
       </c>
-      <c r="R1853" t="inlineStr"/>
+      <c r="R1853" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1854">
       <c r="A1854" s="2" t="n">
@@ -104287,7 +104293,9 @@
       <c r="Q1854" t="n">
         <v>0</v>
       </c>
-      <c r="R1854" t="inlineStr"/>
+      <c r="R1854" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1855">
       <c r="A1855" s="2" t="n">
@@ -104341,7 +104349,279 @@
       <c r="Q1855" t="n">
         <v>0</v>
       </c>
-      <c r="R1855" t="inlineStr"/>
+      <c r="R1855" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1856" t="n">
+        <v>5355.14990234375</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>5363</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>5260.25</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>5297.4501953125</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>5297.4501953125</v>
+      </c>
+      <c r="G1856" t="n">
+        <v>179528</v>
+      </c>
+      <c r="H1856" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1856" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1856" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1856" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1856" t="inlineStr"/>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1857" t="n">
+        <v>5304.9501953125</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>5484.85009765625</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>5231.14990234375</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>5391.4501953125</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>5391.4501953125</v>
+      </c>
+      <c r="G1857" t="n">
+        <v>672936</v>
+      </c>
+      <c r="H1857" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1857" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1857" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1857" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1857" t="inlineStr"/>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1858" t="n">
+        <v>5400</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>5417.5</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>5232</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>5265.5</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>5265.5</v>
+      </c>
+      <c r="G1858" t="n">
+        <v>529354</v>
+      </c>
+      <c r="H1858" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1858" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1858" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1858" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1858" t="inlineStr"/>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1859" t="n">
+        <v>5313.4501953125</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>5313.4501953125</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>5164</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>5198.0498046875</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>5198.0498046875</v>
+      </c>
+      <c r="G1859" t="n">
+        <v>372440</v>
+      </c>
+      <c r="H1859" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1859" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1859" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1859" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1859" t="inlineStr"/>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1860" t="n">
+        <v>5224.60009765625</v>
+      </c>
+      <c r="C1860" t="n">
+        <v>5226</v>
+      </c>
+      <c r="D1860" t="n">
+        <v>5090</v>
+      </c>
+      <c r="E1860" t="n">
+        <v>5102.2998046875</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>5102.2998046875</v>
+      </c>
+      <c r="G1860" t="n">
+        <v>566562</v>
+      </c>
+      <c r="H1860" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1860" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1860" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1860" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1860" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1860"/>
+  <dimension ref="A1:R1864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104405,7 +104405,9 @@
       <c r="Q1856" t="n">
         <v>0</v>
       </c>
-      <c r="R1856" t="inlineStr"/>
+      <c r="R1856" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1857">
       <c r="A1857" s="2" t="n">
@@ -104459,7 +104461,9 @@
       <c r="Q1857" t="n">
         <v>0</v>
       </c>
-      <c r="R1857" t="inlineStr"/>
+      <c r="R1857" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1858">
       <c r="A1858" s="2" t="n">
@@ -104513,7 +104517,9 @@
       <c r="Q1858" t="n">
         <v>0</v>
       </c>
-      <c r="R1858" t="inlineStr"/>
+      <c r="R1858" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1859">
       <c r="A1859" s="2" t="n">
@@ -104567,7 +104573,9 @@
       <c r="Q1859" t="n">
         <v>0</v>
       </c>
-      <c r="R1859" t="inlineStr"/>
+      <c r="R1859" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1860">
       <c r="A1860" s="2" t="n">
@@ -104621,7 +104629,225 @@
       <c r="Q1860" t="n">
         <v>0</v>
       </c>
-      <c r="R1860" t="inlineStr"/>
+      <c r="R1860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1861" t="n">
+        <v>5102.2998046875</v>
+      </c>
+      <c r="C1861" t="n">
+        <v>5215</v>
+      </c>
+      <c r="D1861" t="n">
+        <v>5080</v>
+      </c>
+      <c r="E1861" t="n">
+        <v>5096.2998046875</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>5096.2998046875</v>
+      </c>
+      <c r="G1861" t="n">
+        <v>437174</v>
+      </c>
+      <c r="H1861" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1861" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1861" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1861" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1861" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1861" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1861" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1861" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1861" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1861" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1861" t="inlineStr"/>
+    </row>
+    <row r="1862">
+      <c r="A1862" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1862" t="n">
+        <v>5095</v>
+      </c>
+      <c r="C1862" t="n">
+        <v>5138</v>
+      </c>
+      <c r="D1862" t="n">
+        <v>4936.10009765625</v>
+      </c>
+      <c r="E1862" t="n">
+        <v>4954.35009765625</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>4954.35009765625</v>
+      </c>
+      <c r="G1862" t="n">
+        <v>562718</v>
+      </c>
+      <c r="H1862" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1862" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1862" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1862" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1862" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1862" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1862" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1862" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1862" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1862" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1862" t="inlineStr"/>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1863" t="n">
+        <v>4924.5498046875</v>
+      </c>
+      <c r="C1863" t="n">
+        <v>5015</v>
+      </c>
+      <c r="D1863" t="n">
+        <v>4881</v>
+      </c>
+      <c r="E1863" t="n">
+        <v>4942.60009765625</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>4942.60009765625</v>
+      </c>
+      <c r="G1863" t="n">
+        <v>615247</v>
+      </c>
+      <c r="H1863" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1863" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1863" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1863" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1863" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1863" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1863" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1863" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1863" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1863" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1863" t="inlineStr"/>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1864" t="n">
+        <v>4875</v>
+      </c>
+      <c r="C1864" t="n">
+        <v>4875</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>4696.10009765625</v>
+      </c>
+      <c r="E1864" t="n">
+        <v>4737.5498046875</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>4737.5498046875</v>
+      </c>
+      <c r="G1864" t="n">
+        <v>2983507</v>
+      </c>
+      <c r="H1864" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1864" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1864" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1864" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1864" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1864" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1864" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1864" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1864" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1864" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1864" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DMART.NS.xlsx
+++ b/stock_historical_data/1d/DMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1864"/>
+  <dimension ref="A1:R1869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104453,7 +104453,7 @@
         <v>39</v>
       </c>
       <c r="O1857" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1857" t="n">
         <v>0</v>
@@ -104685,7 +104685,9 @@
       <c r="Q1861" t="n">
         <v>0</v>
       </c>
-      <c r="R1861" t="inlineStr"/>
+      <c r="R1861" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1862">
       <c r="A1862" s="2" t="n">
@@ -104739,7 +104741,9 @@
       <c r="Q1862" t="n">
         <v>0</v>
       </c>
-      <c r="R1862" t="inlineStr"/>
+      <c r="R1862" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1863">
       <c r="A1863" s="2" t="n">
@@ -104793,7 +104797,9 @@
       <c r="Q1863" t="n">
         <v>0</v>
       </c>
-      <c r="R1863" t="inlineStr"/>
+      <c r="R1863" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1864">
       <c r="A1864" s="2" t="n">
@@ -104847,7 +104853,279 @@
       <c r="Q1864" t="n">
         <v>0</v>
       </c>
-      <c r="R1864" t="inlineStr"/>
+      <c r="R1864" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1865" t="n">
+        <v>4741</v>
+      </c>
+      <c r="C1865" t="n">
+        <v>4752.89990234375</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>4518</v>
+      </c>
+      <c r="E1865" t="n">
+        <v>4544.14990234375</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>4544.14990234375</v>
+      </c>
+      <c r="G1865" t="n">
+        <v>1864971</v>
+      </c>
+      <c r="H1865" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1865" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1865" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1865" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1865" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1865" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1865" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1865" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1865" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1865" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1865" t="inlineStr"/>
+    </row>
+    <row r="1866">
+      <c r="A1866" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1866" t="n">
+        <v>4544.14990234375</v>
+      </c>
+      <c r="C1866" t="n">
+        <v>4619.89990234375</v>
+      </c>
+      <c r="D1866" t="n">
+        <v>4435</v>
+      </c>
+      <c r="E1866" t="n">
+        <v>4465.4501953125</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>4465.4501953125</v>
+      </c>
+      <c r="G1866" t="n">
+        <v>1009173</v>
+      </c>
+      <c r="H1866" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1866" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1866" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1866" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1866" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1866" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1866" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1866" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1866" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1866" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1866" t="inlineStr"/>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1867" t="n">
+        <v>4510</v>
+      </c>
+      <c r="C1867" t="n">
+        <v>4688.75</v>
+      </c>
+      <c r="D1867" t="n">
+        <v>4481.64990234375</v>
+      </c>
+      <c r="E1867" t="n">
+        <v>4645.39990234375</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>4645.39990234375</v>
+      </c>
+      <c r="G1867" t="n">
+        <v>1059581</v>
+      </c>
+      <c r="H1867" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1867" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1867" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1867" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1867" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1867" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1867" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1867" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1867" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1867" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1867" t="inlineStr"/>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1868" t="n">
+        <v>4664.7998046875</v>
+      </c>
+      <c r="C1868" t="n">
+        <v>4698.89990234375</v>
+      </c>
+      <c r="D1868" t="n">
+        <v>4572</v>
+      </c>
+      <c r="E1868" t="n">
+        <v>4607.5</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>4607.5</v>
+      </c>
+      <c r="G1868" t="n">
+        <v>316729</v>
+      </c>
+      <c r="H1868" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1868" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1868" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1868" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1868" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1868" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1868" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1868" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1868" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1868" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1868" t="inlineStr"/>
+    </row>
+    <row r="1869">
+      <c r="A1869" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1869" t="n">
+        <v>4643.10009765625</v>
+      </c>
+      <c r="C1869" t="n">
+        <v>4643.10009765625</v>
+      </c>
+      <c r="D1869" t="n">
+        <v>4529</v>
+      </c>
+      <c r="E1869" t="n">
+        <v>4572.7001953125</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>4572.7001953125</v>
+      </c>
+      <c r="G1869" t="n">
+        <v>410440</v>
+      </c>
+      <c r="H1869" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1869" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1869" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1869" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1869" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1869" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1869" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1869" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1869" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1869" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1869" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
